--- a/data/股票基金池.xlsx
+++ b/data/股票基金池.xlsx
@@ -17,36 +17,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>代码</t>
   </si>
   <si>
     <t>名称</t>
-  </si>
-  <si>
-    <t>000595.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>070021.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003634.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>市值占净值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>000176.OF</t>
+  </si>
+  <si>
+    <t>160716.OF</t>
+  </si>
+  <si>
     <t>005662.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000751.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>070019.OF</t>
+  </si>
+  <si>
+    <t>000008.OF</t>
+  </si>
+  <si>
+    <t>000711.OF</t>
+  </si>
+  <si>
+    <t>003053.OF</t>
+  </si>
+  <si>
+    <t>070011.OF</t>
+  </si>
+  <si>
+    <t>070021.OF</t>
   </si>
 </sst>
 </file>
@@ -432,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,16 +460,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="str">
         <f>[1]!f_info_name(A2)</f>
-        <v>嘉实泰和</v>
+        <v>嘉实沪深300增强</v>
       </c>
       <c r="C2" s="1">
         <v>0.2</v>
@@ -470,11 +477,11 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="str">
         <f>[1]!f_info_name(A3)</f>
-        <v>嘉实主题新动力</v>
+        <v>嘉实基本面50指数(LOF)A</v>
       </c>
       <c r="C3" s="1">
         <v>0.199999531783562</v>
@@ -482,11 +489,11 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="str">
         <f>[1]!f_info_name(A4)</f>
-        <v>嘉实农业产业</v>
+        <v>嘉实金融精选A</v>
       </c>
       <c r="C4" s="1">
         <v>0.19999945082300699</v>
@@ -498,7 +505,7 @@
       </c>
       <c r="B5" t="str">
         <f>[1]!f_info_name(A5)</f>
-        <v>嘉实金融精选A</v>
+        <v>嘉实价值优势</v>
       </c>
       <c r="C5" s="1">
         <v>0.19999894600140999</v>
@@ -510,10 +517,58 @@
       </c>
       <c r="B6" t="str">
         <f>[1]!f_info_name(A6)</f>
-        <v>嘉实新兴产业</v>
+        <v>嘉实中证500ETF联接A</v>
       </c>
       <c r="C6" s="1">
         <v>0.19999894600140999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="str">
+        <f>[1]!f_info_name(A7)</f>
+        <v>嘉实医疗保健</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.19999765891780999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="str">
+        <f>[1]!f_info_name(A8)</f>
+        <v>嘉实文体娱乐A</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.19999719070137201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="str">
+        <f>[1]!f_info_name(A9)</f>
+        <v>嘉实策略增长</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.199996722484934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="str">
+        <f>[1]!f_info_name(A10)</f>
+        <v>嘉实主题新动力</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.19999625426849599</v>
       </c>
     </row>
   </sheetData>

--- a/data/股票基金池.xlsx
+++ b/data/股票基金池.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>代码</t>
   </si>
@@ -29,40 +29,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000176.OF</t>
-  </si>
-  <si>
     <t>160716.OF</t>
   </si>
   <si>
-    <t>005662.OF</t>
-  </si>
-  <si>
-    <t>070019.OF</t>
-  </si>
-  <si>
-    <t>000008.OF</t>
-  </si>
-  <si>
-    <t>000711.OF</t>
-  </si>
-  <si>
-    <t>003053.OF</t>
-  </si>
-  <si>
-    <t>070011.OF</t>
-  </si>
-  <si>
-    <t>070021.OF</t>
+    <t>110022.OF</t>
+  </si>
+  <si>
+    <t>001717.OF</t>
+  </si>
+  <si>
+    <t>001071.OF</t>
+  </si>
+  <si>
+    <t>519069.OF</t>
+  </si>
+  <si>
+    <t>163407.OF</t>
+  </si>
+  <si>
+    <t>519736.OF</t>
+  </si>
+  <si>
+    <t>001938.OF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,9 +105,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -439,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -469,10 +461,10 @@
       </c>
       <c r="B2" t="str">
         <f>[1]!f_info_name(A2)</f>
-        <v>嘉实沪深300增强</v>
+        <v>嘉实基本面50指数(LOF)A</v>
       </c>
       <c r="C2" s="1">
-        <v>0.2</v>
+        <v>4.2778573520063999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -481,10 +473,10 @@
       </c>
       <c r="B3" t="str">
         <f>[1]!f_info_name(A3)</f>
-        <v>嘉实基本面50指数(LOF)A</v>
+        <v>易方达消费行业</v>
       </c>
       <c r="C3" s="1">
-        <v>0.199999531783562</v>
+        <v>3.7536565741090003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -493,10 +485,10 @@
       </c>
       <c r="B4" t="str">
         <f>[1]!f_info_name(A4)</f>
-        <v>嘉实金融精选A</v>
+        <v>工银瑞信前沿医疗</v>
       </c>
       <c r="C4" s="1">
-        <v>0.19999945082300699</v>
+        <v>3.5411638811557997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -505,10 +497,10 @@
       </c>
       <c r="B5" t="str">
         <f>[1]!f_info_name(A5)</f>
-        <v>嘉实价值优势</v>
+        <v>华安媒体互联网</v>
       </c>
       <c r="C5" s="1">
-        <v>0.19999894600140999</v>
+        <v>3.1037604736765999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -517,10 +509,10 @@
       </c>
       <c r="B6" t="str">
         <f>[1]!f_info_name(A6)</f>
-        <v>嘉实中证500ETF联接A</v>
+        <v>汇添富价值精选A</v>
       </c>
       <c r="C6" s="1">
-        <v>0.19999894600140999</v>
+        <v>2.6496393299791001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -529,10 +521,10 @@
       </c>
       <c r="B7" t="str">
         <f>[1]!f_info_name(A7)</f>
-        <v>嘉实医疗保健</v>
+        <v>兴全沪深300指数增强A</v>
       </c>
       <c r="C7" s="1">
-        <v>0.19999765891780999</v>
+        <v>2.4771973034378E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -541,10 +533,10 @@
       </c>
       <c r="B8" t="str">
         <f>[1]!f_info_name(A8)</f>
-        <v>嘉实文体娱乐A</v>
+        <v>交银新成长</v>
       </c>
       <c r="C8" s="1">
-        <v>0.19999719070137201</v>
+        <v>1.6175941306545E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -553,22 +545,10 @@
       </c>
       <c r="B9" t="str">
         <f>[1]!f_info_name(A9)</f>
-        <v>嘉实策略增长</v>
+        <v>中欧时代先锋A</v>
       </c>
       <c r="C9" s="1">
-        <v>0.199996722484934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="str">
-        <f>[1]!f_info_name(A10)</f>
-        <v>嘉实主题新动力</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.19999625426849599</v>
+        <v>1.5608027420861001E-2</v>
       </c>
     </row>
   </sheetData>
